--- a/nodes.xlsx
+++ b/nodes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d6aaedf7c31cb3db/Documenten/TA_ABMS/code_student_versie10_09/code_student_versie/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\migue\Desktop\AE4422-20_G01\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="71" documentId="8_{262F959F-D5D6-445F-8AB2-5E13F369AF3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8B26FBC9-24E1-46B9-9561-476C3A6A6E4A}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4A41BCA-F67B-4348-B035-F3EDF42658DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2631F39B-5474-4585-B2F3-6920B4A1DD9F}"/>
+    <workbookView xWindow="-888" yWindow="1860" windowWidth="17280" windowHeight="8880" xr2:uid="{2631F39B-5474-4585-B2F3-6920B4A1DD9F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="11">
   <si>
     <t>id</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>between</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>A</t>
   </si>
 </sst>
 </file>
@@ -100,7 +106,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -116,9 +122,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Thema">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -156,7 +162,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -262,7 +268,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -404,7 +410,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -412,10 +418,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02C710FD-199A-4CFC-B028-EEC314E31456}">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D114"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D109" sqref="D109"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="G110" sqref="G110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1950,6 +1956,76 @@
         <v>8</v>
       </c>
     </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A110">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7</v>
+      </c>
+      <c r="C110">
+        <v>6.5</v>
+      </c>
+      <c r="D110" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A111">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>6.5</v>
+      </c>
+      <c r="C111">
+        <v>7</v>
+      </c>
+      <c r="D111" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A112">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>4</v>
+      </c>
+      <c r="C112">
+        <v>7.5</v>
+      </c>
+      <c r="D112" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A113">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7</v>
+      </c>
+      <c r="C113">
+        <v>7</v>
+      </c>
+      <c r="D113" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A114">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>4</v>
+      </c>
+      <c r="C114">
+        <v>8</v>
+      </c>
+      <c r="D114" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
